--- a/data/ENGL.xlsx
+++ b/data/ENGL.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -410,12 +440,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ENGL 129. Concurrent: ENGL 135.</t>
+          <t>ENGL 129.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ENGL 135.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -454,12 +514,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ENGL 131. Concurrent: ENGL 135.</t>
+          <t>ENGL 131.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ENGL 135.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -525,7 +630,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F,W,SP,SUCorequisite: ENGL 129, ENGL 130, ENGL 131, ENGL 132, ENGL 133, or ENGL 134.</t>
+          <t>ENGL 129, ENGL 130, ENGL 131, ENGL 132, ENGL 133, or ENGL 134.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>F,W,SP,SU</t>
         </is>
       </c>
     </row>
@@ -542,12 +662,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better. Recommended: Completion of GE Area A2.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Completion of GE Area A2.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -564,12 +699,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better. Recommended: Completion of GE Area A2.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Completion of GE Area A2.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better. For Engineering students only. Recommended: Completion of GE Area A2.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better. For Engineering students only.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Completion of GE Area A2.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; and ENGL 251. For English majors only.</t>
+          <t>Completion of GE Area A with grades of C- or better; and ENGL 251. For English majors only.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -679,7 +889,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>W, SPCorequisite: ENGL 203; for English majors only.</t>
+          <t>ENGL 203; for English majors only.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>W, SP</t>
         </is>
       </c>
     </row>
@@ -701,7 +926,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F, SPCorequisite: ENGL 204; for English majors only.</t>
+          <t>ENGL 204; for English majors only.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>F, SP</t>
         </is>
       </c>
     </row>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -789,6 +1074,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -987,7 +1407,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F, WCorequisite: ENGL 205; for English majors only.</t>
+          <t>ENGL 205; for English majors only.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>F, W</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1444,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>W, SPCorequisite: ENGL 303; for English majors only.</t>
+          <t>ENGL 303; for English majors only.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>W, SP</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1481,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F, SPCorequisite: ENGL 304; for English majors only.</t>
+          <t>ENGL 304; for English majors only.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>F, SP</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1518,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>F, SPCorequisite: ENGL 305; for English majors only.</t>
+          <t>ENGL 305; for English majors only.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>F, SP</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1550,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better. Recommended: Junior standing.</t>
+          <t>Completion of GE Area A with grades of C- or better.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -1097,6 +1592,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1114,12 +1624,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area C1. Recommended: ENGL 133.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area C1.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ENGL 133.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1136,12 +1661,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better. Recommended: Junior standing.</t>
+          <t>Completion of GE Area A with grades of C- or better.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1158,12 +1698,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better. Recommended: Junior standing.</t>
+          <t>Completion of GE Area A with grades of C- or better.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1185,6 +1740,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1207,6 +1777,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1229,6 +1814,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1273,6 +1888,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1339,6 +1999,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1361,6 +2036,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1383,6 +2073,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1405,6 +2110,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1427,6 +2147,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1471,6 +2221,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1559,6 +2369,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1620,12 +2475,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A1 with grades of C- or better; and completion of GE Area C1. Recommended: EDUC 300.</t>
+          <t>Junior standing; completion of GE Area A1 with grades of C- or better; and completion of GE Area C1.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>EDUC 300.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1647,6 +2517,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -1669,6 +2554,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1691,6 +2591,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1713,6 +2628,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -1735,6 +2665,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1757,6 +2702,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1779,6 +2739,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>F, W, SU</t>
         </is>
       </c>
@@ -1801,6 +2776,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1823,6 +2813,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1845,6 +2850,21 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1867,6 +2887,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1889,6 +2924,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1911,6 +2961,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -1933,6 +2998,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1955,6 +3035,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1977,6 +3072,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1999,6 +3109,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2016,10 +3141,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ENGL 411.</t>
+          <t>ENGL 411.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2038,10 +3178,25 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Junior standing; ENGL 221; and ENGL 317 or ENGL 319.</t>
+          <t>Junior standing; ENGL 221; and ENGL 317 or ENGL 319.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2065,6 +3220,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2082,12 +3252,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Acceptance into the Single Subject Credential Program in English. Concurrent: EDUC 469 or EDUC 479.</t>
+          <t>Acceptance into the Single Subject Credential Program in English.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>EDUC 469 or EDUC 479.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -2104,12 +3289,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Junior standing and two of the following: ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305, ENGL 306. Recommended: English Major Sequence class in the relevant period.</t>
+          <t>Junior standing and two of the ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305, ENGL 306.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>English Major Sequence class in the relevant period.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -2126,12 +3326,27 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Junior standing and two of the following: ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305, ENGL 306. Recommended: English Major Sequence class in the relevant period.</t>
+          <t>Junior standing and two of the ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305, ENGL 306.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>English Major Sequence class in the relevant period.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -2148,12 +3363,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Junior standing and two of the following: ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305, ENGL 306. Recommended: English Major Sequence class in the relevant period.</t>
+          <t>Junior standing and two of the ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305, ENGL 306.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>English Major Sequence class in the relevant period.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -2170,10 +3400,25 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Senior standing; completion of the GWR; four of the following: ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305; and three of the following: ENGL 430, ENGL 431, ENGL 432, ENGL 439, ENGL 449, ENGL 459.</t>
+          <t>Senior standing; completion of the GWR; four of the ENGL 203, ENGL 204, ENGL 205, ENGL 303, ENGL 304, ENGL 305; and three of the ENGL 430, ENGL 431, ENGL 432, ENGL 439, ENGL 449, ENGL 459.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -2197,6 +3442,21 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -2219,6 +3479,21 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2236,10 +3511,25 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ENGL 387.</t>
+          <t>ENGL 387.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -2258,10 +3548,25 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ENGL 388.</t>
+          <t>ENGL 388.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ENGL 290 or ENGL 390.</t>
+          <t>ENGL 290 or ENGL 390.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2302,10 +3622,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Two of the following: ENGL 290, ENGL 390, ENGL 391, ENGL 395, ENGL 495.</t>
+          <t>Two of the ENGL 290, ENGL 390, ENGL 391, ENGL 395, ENGL 495.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2324,10 +3659,25 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ENGL 497.</t>
+          <t>ENGL 497.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2346,10 +3696,25 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ENGL 498.</t>
+          <t>ENGL 498.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -2373,6 +3738,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2395,6 +3775,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2417,6 +3812,21 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -2439,6 +3849,21 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2456,12 +3881,27 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Graduate standing in English and ENGL 505, or consent of instructor. Concurrent: Teaching of ENGL 134.</t>
+          <t>Graduate standing in English and ENGL 505, or consent of instructor.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Teaching of ENGL 134.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -2478,12 +3918,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Graduate standing in English. Recommended: ENGL 501.</t>
+          <t>Graduate standing in English.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ENGL 501.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -2500,12 +3955,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Graduate standing in English. Recommended: ENGL 501.</t>
+          <t>Graduate standing in English.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ENGL 501.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -2522,12 +3992,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Graduate standing in English. Recommended: ENGL 501.</t>
+          <t>Graduate standing in English.</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ENGL 501.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -2544,12 +4029,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Graduate standing in English. Recommended: ENGL 501.</t>
+          <t>Graduate standing in English.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ENGL 501.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -2571,6 +4071,21 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2593,6 +4108,21 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2610,10 +4140,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Graduate standing in English; and ENGL 505.</t>
+          <t>Graduate standing in English; and ENGL 505.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2637,6 +4182,21 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2659,6 +4219,21 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2676,10 +4251,25 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Consent of graduate advisor; ENGL 501; ENGL 502; ENGL 503; and ENGL 505.</t>
+          <t>Consent of graduate advisor; ENGL 501; ENGL 502; ENGL 503; and ENGL 505.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
